--- a/prems_2021.xlsx
+++ b/prems_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bpkin\OneDrive\Documents\PowerBI\datasets-power-bi-training\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bpkin\OneDrive\Documents\PowerBI\datasets-power-bi-training\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8951A261-8C86-4934-8948-78567CAD37CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534DF9DC-0F2E-45E9-83BB-BD9E2C45230B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table of Contents" sheetId="1" r:id="rId1"/>
@@ -1308,21 +1308,23 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
-    <col min="2" max="2" width="131.5546875" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" customWidth="1"/>
+    <col min="2" max="2" width="131.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="39.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="39.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="80" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="81"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="76" t="s">
         <v>1</v>
       </c>
@@ -1330,7 +1332,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="33.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="79" t="s">
         <v>3</v>
       </c>
@@ -1338,7 +1340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="33.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
         <v>5</v>
       </c>
@@ -1346,7 +1348,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="33.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
         <v>6</v>
       </c>
@@ -1354,7 +1356,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="33.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
         <v>8</v>
       </c>
@@ -1362,7 +1364,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="33.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="79" t="s">
         <v>10</v>
       </c>
@@ -1370,7 +1372,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="33.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="33.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="79" t="s">
         <v>11</v>
       </c>
@@ -1402,22 +1404,24 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="2" width="16.21875" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1430,7 +1434,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1443,7 +1447,7 @@
       <c r="H2" s="60"/>
       <c r="I2" s="60"/>
     </row>
-    <row r="3" spans="1:9" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="49.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="73" t="s">
         <v>14</v>
       </c>
@@ -1472,11 +1476,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="74"/>
       <c r="I4" s="48"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="45">
         <v>2016</v>
       </c>
@@ -1505,7 +1509,7 @@
         <v>15262601</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="45">
         <v>2017</v>
       </c>
@@ -1534,7 +1538,7 @@
         <v>16417313</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="45">
         <v>2018</v>
       </c>
@@ -1563,7 +1567,7 @@
         <v>16231051</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="45">
         <v>2019</v>
       </c>
@@ -1592,7 +1596,7 @@
         <v>16436665</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="45">
         <v>2020</v>
       </c>
@@ -1621,7 +1625,7 @@
         <v>17003282</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="45">
         <v>2021</v>
       </c>
@@ -1650,7 +1654,7 @@
         <v>16646051</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
@@ -1661,7 +1665,7 @@
       <c r="H11" s="59"/>
       <c r="I11" s="59"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>23</v>
       </c>
@@ -1674,7 +1678,7 @@
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
         <v>24</v>
       </c>
@@ -1687,7 +1691,7 @@
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
     </row>
-    <row r="15" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
@@ -1698,7 +1702,7 @@
       <c r="H15" s="24"/>
       <c r="I15" s="24"/>
     </row>
-    <row r="16" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>25</v>
       </c>
@@ -1729,20 +1733,20 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
-    <col min="7" max="7" width="14.5546875" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
     <col min="9" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1755,7 +1759,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>26</v>
       </c>
@@ -1768,7 +1772,7 @@
       <c r="H2" s="60"/>
       <c r="I2" s="60"/>
     </row>
-    <row r="3" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>27</v>
       </c>
@@ -1781,7 +1785,7 @@
       <c r="H3" s="60"/>
       <c r="I3" s="60"/>
     </row>
-    <row r="4" spans="1:9" ht="62.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="62.25" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>28</v>
       </c>
@@ -1810,13 +1814,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>30</v>
       </c>
@@ -1845,7 +1849,7 @@
         <v>16646051</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>29</v>
       </c>
@@ -1858,7 +1862,7 @@
       <c r="H7" s="23"/>
       <c r="I7" s="8"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>31</v>
       </c>
@@ -1871,7 +1875,7 @@
       <c r="H8" s="23"/>
       <c r="I8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>32</v>
       </c>
@@ -1900,7 +1904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>33</v>
       </c>
@@ -1929,7 +1933,7 @@
         <v>16646051</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>29</v>
       </c>
@@ -1942,7 +1946,7 @@
       <c r="H11" s="23"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>34</v>
       </c>
@@ -1971,7 +1975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>35</v>
       </c>
@@ -2000,7 +2004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
@@ -2029,7 +2033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>39</v>
       </c>
@@ -2058,7 +2062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>40</v>
       </c>
@@ -2087,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>41</v>
       </c>
@@ -2116,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>42</v>
       </c>
@@ -2145,7 +2149,7 @@
         <v>3744307</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
@@ -2174,7 +2178,7 @@
         <v>7388895</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>44</v>
       </c>
@@ -2203,7 +2207,7 @@
         <v>4633650</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>45</v>
       </c>
@@ -2232,7 +2236,7 @@
         <v>879199</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>29</v>
       </c>
@@ -2245,7 +2249,7 @@
       <c r="H22" s="23"/>
       <c r="I22" s="8"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>46</v>
       </c>
@@ -2258,7 +2262,7 @@
       <c r="H23" s="23"/>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>47</v>
       </c>
@@ -2287,7 +2291,7 @@
         <v>5314359</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>48</v>
       </c>
@@ -2316,7 +2320,7 @@
         <v>11331691</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>29</v>
       </c>
@@ -2329,7 +2333,7 @@
       <c r="H26" s="23"/>
       <c r="I26" s="8"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>49</v>
       </c>
@@ -2342,7 +2346,7 @@
       <c r="H27" s="23"/>
       <c r="I27" s="8"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>50</v>
       </c>
@@ -2371,7 +2375,7 @@
         <v>5077186</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>51</v>
       </c>
@@ -2400,7 +2404,7 @@
         <v>1016232</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>52</v>
       </c>
@@ -2429,7 +2433,7 @@
         <v>5704422</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>53</v>
       </c>
@@ -2458,7 +2462,7 @@
         <v>3239600</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>54</v>
       </c>
@@ -2487,7 +2491,7 @@
         <v>16506</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>55</v>
       </c>
@@ -2516,7 +2520,7 @@
         <v>222136</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>56</v>
       </c>
@@ -2545,7 +2549,7 @@
         <v>1369969</v>
       </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A35" s="63"/>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
@@ -2556,7 +2560,7 @@
       <c r="H35" s="24"/>
       <c r="I35" s="64"/>
     </row>
-    <row r="36" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
         <v>57</v>
       </c>
@@ -2583,7 +2587,7 @@
       <c r="V36" s="69"/>
       <c r="W36" s="69"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
         <v>58</v>
       </c>
@@ -2612,7 +2616,7 @@
         <v>12385122</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
         <v>59</v>
       </c>
@@ -2641,7 +2645,7 @@
         <v>4260929</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A40" s="90" t="s">
         <v>60</v>
       </c>
@@ -2654,7 +2658,7 @@
       <c r="H40" s="91"/>
       <c r="I40" s="91"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A41" s="90" t="s">
         <v>61</v>
       </c>
@@ -2667,7 +2671,7 @@
       <c r="H41" s="91"/>
       <c r="I41" s="91"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A42" s="72"/>
       <c r="B42" s="59"/>
       <c r="C42" s="69"/>
@@ -2678,7 +2682,7 @@
       <c r="H42" s="69"/>
       <c r="I42" s="69"/>
     </row>
-    <row r="43" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="19" t="s">
         <v>23</v>
       </c>
@@ -2691,8 +2695,8 @@
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
     </row>
-    <row r="44" spans="1:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
         <v>24</v>
       </c>
@@ -2705,10 +2709,10 @@
       <c r="H45" s="22"/>
       <c r="I45" s="22"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
         <v>25</v>
       </c>
@@ -2742,20 +2746,20 @@
       <selection pane="bottomLeft" activeCell="A8" sqref="A8:A58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="14.21875" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2768,7 +2772,7 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
     </row>
-    <row r="2" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>62</v>
       </c>
@@ -2781,7 +2785,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="55.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="55.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>63</v>
       </c>
@@ -2810,13 +2814,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
       <c r="I4" s="48"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>64</v>
       </c>
@@ -2845,7 +2849,7 @@
         <v>16646051</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>65</v>
       </c>
@@ -2874,7 +2878,7 @@
         <v>16632943</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>29</v>
       </c>
@@ -2887,7 +2891,7 @@
       <c r="H7" s="14"/>
       <c r="I7" s="10"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>93</v>
       </c>
@@ -2916,7 +2920,7 @@
         <v>149950</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>94</v>
       </c>
@@ -2945,7 +2949,7 @@
         <v>5888</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>95</v>
       </c>
@@ -2974,7 +2978,7 @@
         <v>305369</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>96</v>
       </c>
@@ -3003,7 +3007,7 @@
         <v>9693</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>97</v>
       </c>
@@ -3032,7 +3036,7 @@
         <v>8524326</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>98</v>
       </c>
@@ -3061,7 +3065,7 @@
         <v>68232</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>99</v>
       </c>
@@ -3090,7 +3094,7 @@
         <v>82115</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>100</v>
       </c>
@@ -3119,7 +3123,7 @@
         <v>7348</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>101</v>
       </c>
@@ -3148,7 +3152,7 @@
         <v>23055</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>102</v>
       </c>
@@ -3177,7 +3181,7 @@
         <v>615997</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>103</v>
       </c>
@@ -3206,7 +3210,7 @@
         <v>104589</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>104</v>
       </c>
@@ -3235,7 +3239,7 @@
         <v>27904</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>105</v>
       </c>
@@ -3264,7 +3268,7 @@
         <v>11278</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>106</v>
       </c>
@@ -3293,7 +3297,7 @@
         <v>200538</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>107</v>
       </c>
@@ -3322,7 +3326,7 @@
         <v>26941</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>108</v>
       </c>
@@ -3351,7 +3355,7 @@
         <v>16711</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>109</v>
       </c>
@@ -3380,7 +3384,7 @@
         <v>28184</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>110</v>
       </c>
@@ -3409,7 +3413,7 @@
         <v>19687</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>111</v>
       </c>
@@ -3438,7 +3442,7 @@
         <v>29039</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>112</v>
       </c>
@@ -3467,7 +3471,7 @@
         <v>14440</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>113</v>
       </c>
@@ -3496,7 +3500,7 @@
         <v>114884</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>114</v>
       </c>
@@ -3525,7 +3529,7 @@
         <v>412142</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>115</v>
       </c>
@@ -3554,7 +3558,7 @@
         <v>57976</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>116</v>
       </c>
@@ -3583,7 +3587,7 @@
         <v>36186</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>117</v>
       </c>
@@ -3612,7 +3616,7 @@
         <v>9401</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>118</v>
       </c>
@@ -3641,7 +3645,7 @@
         <v>77658</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>119</v>
       </c>
@@ -3670,7 +3674,7 @@
         <v>4371</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>120</v>
       </c>
@@ -3699,7 +3703,7 @@
         <v>6622</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>121</v>
       </c>
@@ -3728,7 +3732,7 @@
         <v>56128</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>122</v>
       </c>
@@ -3757,7 +3761,7 @@
         <v>19539</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>123</v>
       </c>
@@ -3786,7 +3790,7 @@
         <v>2583158</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>124</v>
       </c>
@@ -3815,7 +3819,7 @@
         <v>39834</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>125</v>
       </c>
@@ -3844,7 +3848,7 @@
         <v>267918</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>126</v>
       </c>
@@ -3873,7 +3877,7 @@
         <v>71398</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>127</v>
       </c>
@@ -3902,7 +3906,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>128</v>
       </c>
@@ -3931,7 +3935,7 @@
         <v>1322694</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>129</v>
       </c>
@@ -3960,7 +3964,7 @@
         <v>23079</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>130</v>
       </c>
@@ -3989,7 +3993,7 @@
         <v>42669</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>131</v>
       </c>
@@ -4018,7 +4022,7 @@
         <v>116270</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>132</v>
       </c>
@@ -4047,7 +4051,7 @@
         <v>11285</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>133</v>
       </c>
@@ -4076,7 +4080,7 @@
         <v>46291</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>134</v>
       </c>
@@ -4105,7 +4109,7 @@
         <v>2854</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>135</v>
       </c>
@@ -4134,7 +4138,7 @@
         <v>42446</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>136</v>
       </c>
@@ -4163,7 +4167,7 @@
         <v>351375</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>137</v>
       </c>
@@ -4192,7 +4196,7 @@
         <v>13706</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>138</v>
       </c>
@@ -4221,7 +4225,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>139</v>
       </c>
@@ -4250,7 +4254,7 @@
         <v>453358</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>140</v>
       </c>
@@ -4279,7 +4283,7 @@
         <v>139520</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>141</v>
       </c>
@@ -4308,7 +4312,7 @@
         <v>10743</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>142</v>
       </c>
@@ -4337,7 +4341,7 @@
         <v>22959</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>143</v>
       </c>
@@ -4366,19 +4370,19 @@
         <v>565</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>29</v>
       </c>
       <c r="I59" s="56"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>66</v>
       </c>
       <c r="I60" s="57"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>144</v>
       </c>
@@ -4407,7 +4411,7 @@
         <v>4470</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>67</v>
       </c>
@@ -4436,7 +4440,7 @@
         <v>5737</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>68</v>
       </c>
@@ -4465,7 +4469,7 @@
         <v>2901</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>69</v>
       </c>
@@ -4494,7 +4498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="90" t="s">
         <v>60</v>
       </c>
@@ -4507,7 +4511,7 @@
       <c r="H66" s="91"/>
       <c r="I66" s="91"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="90" t="s">
         <v>61</v>
       </c>
@@ -4520,7 +4524,7 @@
       <c r="H67" s="91"/>
       <c r="I67" s="91"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="59"/>
       <c r="C68" s="59"/>
@@ -4531,7 +4535,7 @@
       <c r="H68" s="59"/>
       <c r="I68" s="59"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
         <v>23</v>
       </c>
@@ -4544,7 +4548,7 @@
       <c r="H69" s="20"/>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="21" t="s">
         <v>70</v>
       </c>
@@ -4557,7 +4561,7 @@
       <c r="H70" s="22"/>
       <c r="I70" s="22"/>
     </row>
-    <row r="71" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A71" s="58"/>
       <c r="B71" s="59"/>
       <c r="C71" s="59"/>
@@ -4568,7 +4572,7 @@
       <c r="H71" s="59"/>
       <c r="I71" s="59"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
         <v>24</v>
       </c>
@@ -4581,10 +4585,10 @@
       <c r="H72" s="22"/>
       <c r="I72" s="22"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="25" t="s">
         <v>25</v>
       </c>
@@ -4611,28 +4615,30 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.21875" customWidth="1"/>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" customWidth="1"/>
-    <col min="8" max="8" width="12.21875" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" customWidth="1"/>
-    <col min="10" max="10" width="12.77734375" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" customWidth="1"/>
-    <col min="12" max="12" width="10.77734375" customWidth="1"/>
-    <col min="13" max="13" width="13.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.7109375" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4648,9 +4654,8 @@
       <c r="K1" s="41"/>
       <c r="L1" s="41"/>
       <c r="M1" s="41"/>
-      <c r="N1" s="24"/>
-    </row>
-    <row r="2" spans="1:14" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
@@ -4666,9 +4671,8 @@
       <c r="K2" s="41"/>
       <c r="L2" s="41"/>
       <c r="M2" s="41"/>
-      <c r="N2" s="24"/>
-    </row>
-    <row r="3" spans="1:14" ht="57.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:13" ht="57.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>14</v>
       </c>
@@ -4708,9 +4712,8 @@
       <c r="M3" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="N3" s="24"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>29</v>
       </c>
@@ -4726,9 +4729,8 @@
       <c r="K4" s="43"/>
       <c r="L4" s="43"/>
       <c r="M4" s="44"/>
-      <c r="N4" s="24"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="45">
         <v>2016</v>
       </c>
@@ -4768,9 +4770,8 @@
       <c r="M5" s="82">
         <v>-214308563</v>
       </c>
-      <c r="N5" s="24"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="45">
         <v>2017</v>
       </c>
@@ -4810,9 +4811,8 @@
       <c r="M6" s="46">
         <v>-246259592</v>
       </c>
-      <c r="N6" s="24"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="45">
         <v>2018</v>
       </c>
@@ -4852,9 +4852,8 @@
       <c r="M7" s="46">
         <v>-318039446</v>
       </c>
-      <c r="N7" s="24"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="45">
         <v>2019</v>
       </c>
@@ -4894,9 +4893,8 @@
       <c r="M8" s="46">
         <v>-517144373</v>
       </c>
-      <c r="N8" s="24"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="45">
         <v>2020</v>
       </c>
@@ -4936,9 +4934,8 @@
       <c r="M9" s="46">
         <v>-719542794</v>
       </c>
-      <c r="N9" s="24"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="45">
         <v>2021</v>
       </c>
@@ -4978,9 +4975,8 @@
       <c r="M10" s="46">
         <v>-1049185733</v>
       </c>
-      <c r="N10" s="24"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="58"/>
       <c r="B11" s="59"/>
       <c r="C11" s="59"/>
@@ -4994,9 +4990,8 @@
       <c r="K11" s="59"/>
       <c r="L11" s="59"/>
       <c r="M11" s="54"/>
-      <c r="N11" s="24"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="21" t="s">
         <v>82</v>
       </c>
@@ -5012,9 +5007,8 @@
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
-      <c r="N12" s="24"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>83</v>
       </c>
@@ -5030,12 +5024,8 @@
       <c r="K13" s="20"/>
       <c r="L13" s="20"/>
       <c r="M13" s="47"/>
-      <c r="N13" s="24"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="N14" s="24"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
         <v>84</v>
       </c>
@@ -5051,9 +5041,8 @@
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
-      <c r="N15" s="24"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23"/>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
@@ -5067,9 +5056,8 @@
       <c r="K16" s="24"/>
       <c r="L16" s="24"/>
       <c r="M16" s="24"/>
-      <c r="N16" s="24"/>
-    </row>
-    <row r="17" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>25</v>
       </c>
@@ -5085,7 +5073,6 @@
       <c r="K17" s="26"/>
       <c r="L17" s="26"/>
       <c r="M17" s="55"/>
-      <c r="N17" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5105,23 +5092,23 @@
       <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" customWidth="1"/>
-    <col min="8" max="9" width="10.77734375" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" customWidth="1"/>
-    <col min="12" max="12" width="11.21875" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5138,7 +5125,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
@@ -5155,7 +5142,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>86</v>
       </c>
@@ -5172,7 +5159,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="1:13" ht="66" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="66" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
         <v>28</v>
       </c>
@@ -5213,13 +5200,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>29</v>
       </c>
       <c r="M5" s="48"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
         <v>30</v>
       </c>
@@ -5260,7 +5247,7 @@
         <v>-1049185733</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="32" t="s">
         <v>29</v>
       </c>
@@ -5277,7 +5264,7 @@
       <c r="L7" s="59"/>
       <c r="M7" s="49"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>31</v>
       </c>
@@ -5294,7 +5281,7 @@
       <c r="L8" s="59"/>
       <c r="M8" s="50"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>32</v>
       </c>
@@ -5335,7 +5322,7 @@
         <v>-134747070</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>33</v>
       </c>
@@ -5376,7 +5363,7 @@
         <v>-914438663</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
         <v>29</v>
       </c>
@@ -5393,7 +5380,7 @@
       <c r="L11" s="59"/>
       <c r="M11" s="51"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>34</v>
       </c>
@@ -5434,7 +5421,7 @@
         <v>-400</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>35</v>
       </c>
@@ -5475,7 +5462,7 @@
         <v>-507253</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>36</v>
       </c>
@@ -5516,7 +5503,7 @@
         <v>-2732760</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>39</v>
       </c>
@@ -5557,7 +5544,7 @@
         <v>-9632273</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>40</v>
       </c>
@@ -5598,7 +5585,7 @@
         <v>-29599625</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>41</v>
       </c>
@@ -5639,7 +5626,7 @@
         <v>-92274759</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>42</v>
       </c>
@@ -5680,7 +5667,7 @@
         <v>-564313676</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>43</v>
       </c>
@@ -5721,7 +5708,7 @@
         <v>-274400836</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>44</v>
       </c>
@@ -5762,7 +5749,7 @@
         <v>-69886294</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>45</v>
       </c>
@@ -5803,7 +5790,7 @@
         <v>-5837858</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
         <v>29</v>
       </c>
@@ -5820,7 +5807,7 @@
       <c r="L22" s="59"/>
       <c r="M22" s="49"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
         <v>46</v>
       </c>
@@ -5837,7 +5824,7 @@
       <c r="L23" s="59"/>
       <c r="M23" s="50"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>47</v>
       </c>
@@ -5878,7 +5865,7 @@
         <v>-547114089</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>48</v>
       </c>
@@ -5919,7 +5906,7 @@
         <v>-502071644</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>29</v>
       </c>
@@ -5936,7 +5923,7 @@
       <c r="L26" s="59"/>
       <c r="M26" s="52"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>49</v>
       </c>
@@ -5953,7 +5940,7 @@
       <c r="L27" s="59"/>
       <c r="M27" s="50"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>50</v>
       </c>
@@ -5994,7 +5981,7 @@
         <v>-518968197</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>51</v>
       </c>
@@ -6035,7 +6022,7 @@
         <v>-130922086</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>52</v>
       </c>
@@ -6076,7 +6063,7 @@
         <v>-33252369</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>53</v>
       </c>
@@ -6117,7 +6104,7 @@
         <v>-346201580</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>54</v>
       </c>
@@ -6158,7 +6145,7 @@
         <v>-2741808</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>55</v>
       </c>
@@ -6199,7 +6186,7 @@
         <v>-6386149</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>56</v>
       </c>
@@ -6240,7 +6227,7 @@
         <v>-10713544</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="34"/>
       <c r="B35" s="59"/>
       <c r="C35" s="23"/>
@@ -6255,7 +6242,7 @@
       <c r="L35" s="59"/>
       <c r="M35" s="49"/>
     </row>
-    <row r="36" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
         <v>57</v>
       </c>
@@ -6272,7 +6259,7 @@
       <c r="L36" s="59"/>
       <c r="M36" s="50"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="37" t="s">
         <v>58</v>
       </c>
@@ -6313,7 +6300,7 @@
         <v>-75398107</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="37" t="s">
         <v>59</v>
       </c>
@@ -6354,7 +6341,7 @@
         <v>-973787626</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="90" t="s">
         <v>60</v>
       </c>
@@ -6371,7 +6358,7 @@
       <c r="L40" s="91"/>
       <c r="M40" s="91"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="90" t="s">
         <v>61</v>
       </c>
@@ -6388,7 +6375,7 @@
       <c r="L41" s="91"/>
       <c r="M41" s="91"/>
     </row>
-    <row r="42" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="72"/>
       <c r="B42" s="69"/>
       <c r="C42" s="69"/>
@@ -6403,7 +6390,7 @@
       <c r="L42" s="59"/>
       <c r="M42" s="83"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>82</v>
       </c>
@@ -6420,7 +6407,7 @@
       <c r="L43" s="18"/>
       <c r="M43" s="18"/>
     </row>
-    <row r="44" spans="1:13" ht="14.55" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:13" ht="14.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="19" t="s">
         <v>83</v>
       </c>
@@ -6437,8 +6424,8 @@
       <c r="L44" s="20"/>
       <c r="M44" s="47"/>
     </row>
-    <row r="45" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
         <v>84</v>
       </c>
@@ -6455,7 +6442,7 @@
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="C47" s="24"/>
       <c r="D47" s="24"/>
@@ -6465,7 +6452,7 @@
       <c r="H47" s="24"/>
       <c r="I47" s="24"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
         <v>25</v>
       </c>
@@ -6495,28 +6482,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="9" width="10.77734375" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.77734375" customWidth="1"/>
-    <col min="12" max="12" width="11.21875" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="8" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
+    <col min="12" max="12" width="11.28515625" customWidth="1"/>
+    <col min="13" max="13" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6533,7 +6520,7 @@
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>87</v>
       </c>
@@ -6550,7 +6537,7 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" spans="1:13" ht="65.55" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="65.650000000000006" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>63</v>
       </c>
@@ -6591,7 +6578,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>29</v>
       </c>
@@ -6608,7 +6595,7 @@
       <c r="L4" s="23"/>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>64</v>
       </c>
@@ -6649,7 +6636,7 @@
         <v>-1049185733</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>65</v>
       </c>
@@ -6690,7 +6677,7 @@
         <v>-821212627</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>29</v>
       </c>
@@ -6707,7 +6694,7 @@
       <c r="L7" s="59"/>
       <c r="M7" s="84"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>93</v>
       </c>
@@ -6748,7 +6735,7 @@
         <v>-3791415</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>94</v>
       </c>
@@ -6789,7 +6776,7 @@
         <v>-39753</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>95</v>
       </c>
@@ -6830,7 +6817,7 @@
         <v>-12126045</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>96</v>
       </c>
@@ -6871,7 +6858,7 @@
         <v>-5706075</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>97</v>
       </c>
@@ -6912,7 +6899,7 @@
         <v>-41401293</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>98</v>
       </c>
@@ -6953,7 +6940,7 @@
         <v>-6348672</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>99</v>
       </c>
@@ -6994,7 +6981,7 @@
         <v>-2070300</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>100</v>
       </c>
@@ -7035,7 +7022,7 @@
         <v>-568410</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>101</v>
       </c>
@@ -7076,7 +7063,7 @@
         <v>-179663</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>102</v>
       </c>
@@ -7117,7 +7104,7 @@
         <v>-419478483</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>103</v>
       </c>
@@ -7158,7 +7145,7 @@
         <v>-23271896</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>104</v>
       </c>
@@ -7199,7 +7186,7 @@
         <v>-206624</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>105</v>
       </c>
@@ -7240,7 +7227,7 @@
         <v>-1169273</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>106</v>
       </c>
@@ -7281,7 +7268,7 @@
         <v>-4087124</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>107</v>
       </c>
@@ -7322,7 +7309,7 @@
         <v>-3992722</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>108</v>
       </c>
@@ -7363,7 +7350,7 @@
         <v>-951509</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>109</v>
       </c>
@@ -7404,7 +7391,7 @@
         <v>-2371247</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>110</v>
       </c>
@@ -7445,7 +7432,7 @@
         <v>-9874691</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>111</v>
       </c>
@@ -7486,7 +7473,7 @@
         <v>-23752617</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>112</v>
       </c>
@@ -7527,7 +7514,7 @@
         <v>-3152122</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>113</v>
       </c>
@@ -7568,7 +7555,7 @@
         <v>-2416370</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>114</v>
       </c>
@@ -7609,7 +7596,7 @@
         <v>-719168</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>115</v>
       </c>
@@ -7650,7 +7637,7 @@
         <v>-9269159</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>116</v>
       </c>
@@ -7691,7 +7678,7 @@
         <v>-6170387</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>117</v>
       </c>
@@ -7732,7 +7719,7 @@
         <v>-10640844</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>118</v>
       </c>
@@ -7773,7 +7760,7 @@
         <v>-7022550</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>119</v>
       </c>
@@ -7814,7 +7801,7 @@
         <v>-1146087</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>120</v>
       </c>
@@ -7855,7 +7842,7 @@
         <v>-468228</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>121</v>
       </c>
@@ -7896,7 +7883,7 @@
         <v>-7903395</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>122</v>
       </c>
@@ -7937,7 +7924,7 @@
         <v>-1972527</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="9" t="s">
         <v>123</v>
       </c>
@@ -7978,7 +7965,7 @@
         <v>-6505972</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="9" t="s">
         <v>124</v>
       </c>
@@ -8019,7 +8006,7 @@
         <v>-3421459</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="9" t="s">
         <v>125</v>
       </c>
@@ -8060,7 +8047,7 @@
         <v>-27728757</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>126</v>
       </c>
@@ -8101,7 +8088,7 @@
         <v>-33540194</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>127</v>
       </c>
@@ -8142,7 +8129,7 @@
         <v>-239753</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
         <v>128</v>
       </c>
@@ -8183,7 +8170,7 @@
         <v>-6063870</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
         <v>129</v>
       </c>
@@ -8224,7 +8211,7 @@
         <v>-4388889</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>130</v>
       </c>
@@ -8265,7 +8252,7 @@
         <v>-2437637</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>131</v>
       </c>
@@ -8306,7 +8293,7 @@
         <v>-10275780</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>132</v>
       </c>
@@ -8347,7 +8334,7 @@
         <v>-375355</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>133</v>
       </c>
@@ -8388,7 +8375,7 @@
         <v>-26887802</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>134</v>
       </c>
@@ -8429,7 +8416,7 @@
         <v>-583891</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>135</v>
       </c>
@@ -8470,7 +8457,7 @@
         <v>-10799973</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>136</v>
       </c>
@@ -8511,7 +8498,7 @@
         <v>-58561867</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>137</v>
       </c>
@@ -8552,7 +8539,7 @@
         <v>-3316865</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>138</v>
       </c>
@@ -8593,7 +8580,7 @@
         <v>-249194</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>139</v>
       </c>
@@ -8634,7 +8621,7 @@
         <v>-5067644</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>140</v>
       </c>
@@ -8675,7 +8662,7 @@
         <v>-2589327</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>141</v>
       </c>
@@ -8716,7 +8703,7 @@
         <v>-2444209</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>142</v>
       </c>
@@ -8757,7 +8744,7 @@
         <v>-3419655</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>143</v>
       </c>
@@ -8798,7 +8785,7 @@
         <v>-45887</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="16" t="s">
         <v>29</v>
       </c>
@@ -8815,7 +8802,7 @@
       <c r="L59" s="59"/>
       <c r="M59" s="85"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
         <v>66</v>
       </c>
@@ -8832,7 +8819,7 @@
       <c r="L60" s="59"/>
       <c r="M60" s="86"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>144</v>
       </c>
@@ -8873,7 +8860,7 @@
         <v>-227610299</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>89</v>
       </c>
@@ -8914,7 +8901,7 @@
         <v>-78158</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>68</v>
       </c>
@@ -8955,7 +8942,7 @@
         <v>-284499</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>69</v>
       </c>
@@ -8996,7 +8983,7 @@
         <v>-150</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="90" t="s">
         <v>60</v>
       </c>
@@ -9013,7 +9000,7 @@
       <c r="L66" s="91"/>
       <c r="M66" s="91"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="90" t="s">
         <v>61</v>
       </c>
@@ -9030,7 +9017,7 @@
       <c r="L67" s="91"/>
       <c r="M67" s="91"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
       <c r="B68" s="59"/>
       <c r="C68" s="59"/>
@@ -9045,7 +9032,7 @@
       <c r="L68" s="59"/>
       <c r="M68" s="59"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
         <v>82</v>
       </c>
@@ -9062,7 +9049,7 @@
       <c r="L69" s="18"/>
       <c r="M69" s="18"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
         <v>83</v>
       </c>
@@ -9079,7 +9066,7 @@
       <c r="L70" s="20"/>
       <c r="M70" s="47"/>
     </row>
-    <row r="71" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:13" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="21" t="s">
         <v>90</v>
       </c>
@@ -9096,8 +9083,8 @@
       <c r="L71" s="20"/>
       <c r="M71" s="47"/>
     </row>
-    <row r="72" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
         <v>84</v>
       </c>
@@ -9114,7 +9101,7 @@
       <c r="L73" s="18"/>
       <c r="M73" s="18"/>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
       <c r="C74" s="24"/>
       <c r="D74" s="24"/>
@@ -9128,7 +9115,7 @@
       <c r="L74" s="24"/>
       <c r="M74" s="24"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="25" t="s">
         <v>25</v>
       </c>
